--- a/public/excel_files/masterlist-2014-12-12.xlsx
+++ b/public/excel_files/masterlist-2014-12-12.xlsx
@@ -562,6 +562,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,10 +576,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -885,7 +885,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2378,7 +2378,9 @@
       <c r="S10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="35"/>
+      <c r="T10" s="35">
+        <v>0</v>
+      </c>
       <c r="U10" s="35">
         <v>0</v>
       </c>
@@ -2513,336 +2515,336 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
       <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="AL13" s="44"/>
       <c r="AM13" s="33"/>
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
       <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
+      <c r="AL14" s="44"/>
       <c r="AM14" s="33"/>
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
       <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
+      <c r="AL15" s="44"/>
       <c r="AM15" s="33"/>
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
       <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
+      <c r="AL16" s="44"/>
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
       <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
+      <c r="AL17" s="44"/>
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
       <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
+      <c r="AL18" s="44"/>
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
       <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
+      <c r="AL19" s="44"/>
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
       <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
+      <c r="AL20" s="44"/>
       <c r="AM20" s="33"/>
     </row>
   </sheetData>
@@ -2875,7 +2877,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4368,7 +4370,9 @@
       <c r="S10" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="35"/>
+      <c r="T10" s="35">
+        <v>0</v>
+      </c>
       <c r="U10" s="35">
         <v>0</v>
       </c>
@@ -4463,7 +4467,9 @@
       <c r="S11" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="35"/>
+      <c r="T11" s="35">
+        <v>0</v>
+      </c>
       <c r="U11" s="35">
         <v>0</v>
       </c>
@@ -4553,336 +4559,336 @@
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
       <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="AL13" s="44"/>
       <c r="AM13" s="33"/>
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
       <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
+      <c r="AL14" s="44"/>
       <c r="AM14" s="33"/>
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
       <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
+      <c r="AL15" s="44"/>
       <c r="AM15" s="33"/>
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
       <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
+      <c r="AL16" s="44"/>
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
       <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
+      <c r="AL17" s="44"/>
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
       <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
+      <c r="AL18" s="44"/>
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
       <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
+      <c r="AL19" s="44"/>
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
       <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
+      <c r="AL20" s="44"/>
       <c r="AM20" s="33"/>
     </row>
   </sheetData>

--- a/public/excel_files/masterlist-2014-12-12.xlsx
+++ b/public/excel_files/masterlist-2014-12-12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>PAYROLL PERIOD:</t>
   </si>
@@ -195,15 +195,19 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -335,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,38 +352,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,7 +392,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="166" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,7 +420,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="165" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="166" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -537,6 +533,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -840,52 +848,52 @@
     <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK20"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.8265306122449" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.52551020408163" customWidth="true" style="0"/>
     <col min="2" max="2" width="0" hidden="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.5357142857143" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.6377551020408" customWidth="true" style="1"/>
     <col min="5" max="5" width="13.6173469387755" customWidth="true" style="2"/>
     <col min="6" max="6" width="15.4183673469388" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.1428571428571" customWidth="true" style="1"/>
-    <col min="8" max="8" width="13.1938775510204" customWidth="true" style="3"/>
-    <col min="9" max="9" width="12.5" customWidth="true" style="4"/>
-    <col min="10" max="10" width="11.1122448979592" customWidth="true" style="5"/>
-    <col min="11" max="11" width="9.43877551020408" customWidth="true" style="6"/>
-    <col min="12" max="12" width="10.969387755102" customWidth="true" style="6"/>
+    <col min="7" max="7" width="15.9744897959184" customWidth="true" style="1"/>
+    <col min="8" max="8" width="13.1938775510204" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.5" customWidth="true" style="3"/>
+    <col min="10" max="10" width="11.1122448979592" customWidth="true" style="1"/>
+    <col min="11" max="11" width="9.43877551020408" customWidth="true" style="1"/>
+    <col min="12" max="12" width="10.969387755102" customWidth="true" style="1"/>
     <col min="13" max="13" width="8.8265306122449" customWidth="true" style="1"/>
-    <col min="14" max="14" width="12.6377551020408" customWidth="true" style="4"/>
-    <col min="15" max="15" width="11.1122448979592" customWidth="true" style="4"/>
-    <col min="16" max="16" width="13.0561224489796" customWidth="true" style="4"/>
-    <col min="17" max="17" width="8.8265306122449" customWidth="true" style="4"/>
-    <col min="18" max="18" width="15.5612244897959" customWidth="true" style="4"/>
-    <col min="19" max="19" width="8.8265306122449" customWidth="true" style="7"/>
-    <col min="20" max="20" width="8.8265306122449" customWidth="true" style="7"/>
-    <col min="21" max="21" width="8.8265306122449" customWidth="true" style="7"/>
-    <col min="22" max="22" width="8.8265306122449" customWidth="true" style="5"/>
-    <col min="23" max="23" width="0" hidden="true" customWidth="true" style="5"/>
-    <col min="24" max="24" width="0" hidden="true" customWidth="true" style="5"/>
-    <col min="25" max="25" width="0" hidden="true" customWidth="true" style="5"/>
-    <col min="26" max="26" width="0" hidden="true" customWidth="true" style="5"/>
-    <col min="27" max="27" width="0" hidden="true" customWidth="true" style="5"/>
-    <col min="28" max="28" width="12.219387755102" customWidth="true" style="5"/>
-    <col min="29" max="29" width="11.9438775510204" customWidth="true" style="5"/>
-    <col min="30" max="30" width="8.8265306122449" customWidth="true" style="5"/>
-    <col min="31" max="31" width="8.8265306122449" customWidth="true" style="5"/>
-    <col min="32" max="32" width="11.1122448979592" customWidth="true" style="5"/>
-    <col min="33" max="33" width="10.5561224489796" customWidth="true" style="5"/>
-    <col min="34" max="34" width="8.8265306122449" customWidth="true" style="5"/>
-    <col min="35" max="35" width="12.3673469387755" customWidth="true" style="5"/>
-    <col min="36" max="36" width="13.1938775510204" customWidth="true" style="5"/>
-    <col min="37" max="37" width="8.8265306122449" customWidth="true" style="3"/>
-    <col min="38" max="38" width="8.8265306122449" customWidth="true" style="3"/>
+    <col min="14" max="14" width="12.6377551020408" customWidth="true" style="3"/>
+    <col min="15" max="15" width="11.1122448979592" customWidth="true" style="3"/>
+    <col min="16" max="16" width="13.0561224489796" customWidth="true" style="3"/>
+    <col min="17" max="17" width="10.8367346938776" customWidth="true" style="3"/>
+    <col min="18" max="18" width="15.5612244897959" customWidth="true" style="3"/>
+    <col min="19" max="19" width="11.25" customWidth="true" style="4"/>
+    <col min="20" max="20" width="9.862244897959179" customWidth="true" style="4"/>
+    <col min="21" max="21" width="10.1428571428571" customWidth="true" style="4"/>
+    <col min="22" max="22" width="9.586734693877551" customWidth="true" style="1"/>
+    <col min="23" max="23" width="0" hidden="true" customWidth="true" style="1"/>
+    <col min="24" max="24" width="0" hidden="true" customWidth="true" style="1"/>
+    <col min="25" max="25" width="0" hidden="true" customWidth="true" style="1"/>
+    <col min="26" max="26" width="0" hidden="true" customWidth="true" style="1"/>
+    <col min="27" max="27" width="0" hidden="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="12.219387755102" customWidth="true" style="1"/>
+    <col min="29" max="29" width="11.9438775510204" customWidth="true" style="1"/>
+    <col min="30" max="30" width="8.8265306122449" customWidth="true" style="1"/>
+    <col min="31" max="31" width="8.8265306122449" customWidth="true" style="1"/>
+    <col min="32" max="32" width="11.1122448979592" customWidth="true" style="1"/>
+    <col min="33" max="33" width="10.5561224489796" customWidth="true" style="1"/>
+    <col min="34" max="34" width="8.8265306122449" customWidth="true" style="1"/>
+    <col min="35" max="35" width="12.3673469387755" customWidth="true" style="1"/>
+    <col min="36" max="36" width="13.1938775510204" customWidth="true" style="1"/>
+    <col min="37" max="37" width="8.8265306122449" customWidth="true" style="0"/>
+    <col min="38" max="38" width="8.8265306122449" customWidth="true" style="0"/>
     <col min="39" max="39" width="8.8265306122449" customWidth="true" style="0"/>
     <col min="40" max="40" width="8.8265306122449" customWidth="true" style="0"/>
     <col min="41" max="41" width="8.8265306122449" customWidth="true" style="0"/>
@@ -1876,991 +1884,1028 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="15">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="H1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1"/>
-      <c r="AL1"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
     </row>
     <row r="2" spans="1:1025" customHeight="1" ht="15">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="H2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
     <row r="3" spans="1:1025" customHeight="1" ht="12.75">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="H3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
     </row>
     <row r="4" spans="1:1025" customHeight="1" ht="14.25">
       <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" s="1"/>
-      <c r="H4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:1025" customHeight="1" ht="12.8">
       <c r="C5"/>
+      <c r="D5"/>
       <c r="E5" s="1"/>
-      <c r="H5"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
     </row>
     <row r="6" spans="1:1025" customHeight="1" ht="12.8">
       <c r="C6"/>
+      <c r="D6"/>
       <c r="E6" s="1"/>
-      <c r="H6"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="15">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="H7"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="9"/>
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="12.75">
       <c r="C8"/>
+      <c r="D8"/>
       <c r="E8" s="1"/>
-      <c r="H8"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="12" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="13" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13" t="s">
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="15"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="13"/>
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="24">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="U9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="Z9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA9" s="24" t="s">
+      <c r="AA9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AB9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AD9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AE9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AF9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AG9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AH9" s="25" t="s">
+      <c r="AH9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AI9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AJ9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AK9" s="25" t="s">
+      <c r="AK9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AL9" s="26" t="s">
+      <c r="AL9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AM9" s="27" t="s">
+      <c r="AM9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <v>1700344</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="30">
         <v>8723</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>4361.5</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>335.5</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="33">
         <v>15</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37">
+      <c r="M10" s="34"/>
+      <c r="N10" s="35">
         <v>0</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="35">
         <v>92.268</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35">
         <v>335.5</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="35">
         <v>100.65</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="36">
         <v>0</v>
       </c>
-      <c r="U10" s="38">
+      <c r="U10" s="36">
         <v>0</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="30">
         <v>0</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="37">
         <v>0</v>
       </c>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39">
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37">
         <v>36</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="37">
         <v>83.7</v>
       </c>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39">
+      <c r="AD10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="37">
         <v>119.7</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="37">
         <v>100</v>
       </c>
-      <c r="AG10" s="39">
+      <c r="AG10" s="37">
         <v>100</v>
       </c>
-      <c r="AH10" s="39">
+      <c r="AH10" s="37">
         <v>200</v>
       </c>
-      <c r="AI10" s="39">
+      <c r="AI10" s="37">
         <v>0</v>
       </c>
-      <c r="AJ10" s="39">
+      <c r="AJ10" s="37">
         <v>0</v>
       </c>
-      <c r="AK10" s="40">
+      <c r="AK10" s="38">
         <v>0</v>
       </c>
-      <c r="AL10" s="39" t="s">
+      <c r="AL10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="41" t="s">
+      <c r="AM10" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35">
         <v>0</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <v>92.268</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36">
         <v>4218.918</v>
       </c>
-      <c r="T11" s="38">
+      <c r="T11" s="36">
         <v>0</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="36">
         <v>0</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="30">
         <v>0</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37">
         <v>36</v>
       </c>
-      <c r="AC11" s="39">
+      <c r="AC11" s="37">
         <v>83.7</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39">
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37">
         <v>119.7</v>
       </c>
-      <c r="AF11" s="39">
+      <c r="AF11" s="37">
         <v>100</v>
       </c>
-      <c r="AG11" s="39">
+      <c r="AG11" s="37">
         <v>100</v>
       </c>
-      <c r="AH11" s="39">
+      <c r="AH11" s="37">
         <v>200</v>
       </c>
-      <c r="AI11" s="39">
+      <c r="AI11" s="37">
         <v>0</v>
       </c>
-      <c r="AJ11" s="39">
+      <c r="AJ11" s="37">
         <v>0</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="38">
         <v>0</v>
       </c>
-      <c r="AL11" s="39">
+      <c r="AL11" s="37">
         <v>3996.3126</v>
       </c>
-      <c r="AM11" s="41"/>
+      <c r="AM11" s="39"/>
     </row>
     <row r="12" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="41"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="39"/>
     </row>
     <row r="13" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="36"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="34"/>
     </row>
     <row r="14" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="36"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="34"/>
     </row>
     <row r="15" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="36"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="34"/>
     </row>
     <row r="16" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="36"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="34"/>
     </row>
     <row r="17" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="36"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="34"/>
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="36"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="34"/>
     </row>
     <row r="19" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="34"/>
     </row>
     <row r="20" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="34"/>
+    </row>
+    <row r="21" spans="1:1025" customHeight="1" ht="12.8">
+      <c r="A21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="34" t="str">
+        <f>SUM(H10:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="42"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
